--- a/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/NPC/Human_boy/AnimationInfo.xlsx
+++ b/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/NPC/Human_boy/AnimationInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\01.KPUFinalProject\The Eternals\FrameDirectX12\Bin\Resource\ResourceStage\DynamicMesh\NPC\Human_boy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C744C6D-24F3-47CB-A966-54E54A95036E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC0271-318B-4348-8779-B306FEA83C7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19050" windowHeight="10400" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="C3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,7 +518,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="1">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">

--- a/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/NPC/Human_boy/AnimationInfo.xlsx
+++ b/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/NPC/Human_boy/AnimationInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\01.KPUFinalProject\The Eternals\FrameDirectX12\Bin\Resource\ResourceStage\DynamicMesh\NPC\Human_boy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC0271-318B-4348-8779-B306FEA83C7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C744C6D-24F3-47CB-A966-54E54A95036E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19050" windowHeight="10400" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="C3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,7 +518,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="1">
-        <v>181</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
